--- a/test/Achive.xlsx
+++ b/test/Achive.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17370" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17376" windowHeight="7872"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="achive" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="test_aa" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
-  <si>
-    <t>成就id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,14 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结构体名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构体字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +123,42 @@
   </si>
   <si>
     <t>tbsIdCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>define</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,23 +298,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -329,23 +333,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,137 +513,135 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -668,27 +653,276 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>